--- a/assets/excel/주식 종목 리스트 - 시계열 예시.xlsx
+++ b/assets/excel/주식 종목 리스트 - 시계열 예시.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="10185" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -511,10 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,12 +538,12 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -541,20 +556,20 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44263</v>
       </c>
@@ -567,20 +582,20 @@
       <c r="D2" s="5">
         <v>54.68</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>44263</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="7">
         <v>82000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>135500</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>890000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44264</v>
       </c>
@@ -593,20 +608,20 @@
       <c r="D3" s="5">
         <v>54.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>44264</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <v>81400</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>136500</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>861000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44265</v>
       </c>
@@ -619,20 +634,20 @@
       <c r="D4" s="5">
         <v>54.57</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>44265</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="7">
         <v>80900</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>133000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>891000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44266</v>
       </c>
@@ -645,20 +660,20 @@
       <c r="D5" s="5">
         <v>54.67</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>44266</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <v>82000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>137000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>939000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44267</v>
       </c>
@@ -671,16 +686,16 @@
       <c r="D6" s="5">
         <v>54.71</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>44267</v>
       </c>
-      <c r="G6" s="7">
+      <c r="I6" s="7">
         <v>82800</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>140000</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>944000</v>
       </c>
     </row>
@@ -690,4 +705,17 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>